--- a/consolidacao/CIGR_consolidacao.xlsx
+++ b/consolidacao/CIGR_consolidacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,12 +913,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30.15.28</t>
+          <t>30.16.1143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TECIDO MALHA AZUL</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,31 +927,41 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15 - MATERIAL P/ FESTIVIDADES E HOMENAGENS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>43</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30.16.1143</t>
+          <t>30.16.1144</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
+          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -960,7 +970,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>1146</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -969,11 +979,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
+          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>43</v>
+        <v>1294</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1016,7 +1026,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1294</v>
+        <v>1146</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1032,12 +1042,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30.16.1144</t>
+          <t>30.16.1148</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1046,7 +1056,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1146</v>
+        <v>16</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1055,15 +1065,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1146</v>
+        <v>19</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1075,21 +1085,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30.16.1148</t>
+          <t>30.16.1154</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
+          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1098,15 +1108,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
+          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1118,21 +1128,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30.16.1154</t>
+          <t>30.16.1166</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
+          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1141,11 +1151,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
+          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1161,21 +1171,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30.16.1166</t>
+          <t>30.16.1183</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>RESMA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1184,11 +1194,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1247,21 +1257,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30.16.1183</t>
+          <t>30.16.1186</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RESMA</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1270,11 +1280,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1290,21 +1300,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30.16.1186</t>
+          <t>30.16.1192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
+          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1313,11 +1323,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
+          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1333,12 +1343,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30.16.1192</t>
+          <t>30.16.123</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
+          <t>PASTA POLIONDA 4 CM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1347,7 +1357,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1356,11 +1366,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
+          <t>PASTA POLIONDA 4 CM</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1376,12 +1386,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30.16.123</t>
+          <t>30.16.1269</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PASTA POLIONDA 4 CM</t>
+          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1390,7 +1400,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1399,11 +1409,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PASTA POLIONDA 4 CM</t>
+          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1419,12 +1429,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30.16.1269</t>
+          <t>30.16.1359</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1433,7 +1443,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1442,11 +1452,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1462,12 +1472,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30.16.1359</t>
+          <t>30.16.136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
+          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1476,7 +1486,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1485,11 +1495,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
+          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1505,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30.16.136</t>
+          <t>30.16.1360</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1519,7 +1529,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1528,11 +1538,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>299</v>
+        <v>7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1548,12 +1558,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30.16.1360</t>
+          <t>30.16.1361</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1562,7 +1572,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1571,11 +1581,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1591,12 +1601,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30.16.1361</t>
+          <t>30.16.1362</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1605,7 +1615,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1614,11 +1624,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1634,12 +1644,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30.16.1362</t>
+          <t>30.16.1366</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
+          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1648,7 +1658,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1657,11 +1667,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
+          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1677,12 +1687,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30.16.1366</t>
+          <t>30.16.1374</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
+          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1691,7 +1701,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1700,11 +1710,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
+          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1720,12 +1730,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.16.1374</t>
+          <t>30.16.1392</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
+          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1734,7 +1744,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1743,11 +1753,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
+          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1763,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30.16.1392</t>
+          <t>30.16.1416</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1777,7 +1787,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1786,11 +1796,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1806,12 +1816,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30.16.1416</t>
+          <t>30.16.1421</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
+          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1820,7 +1830,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1829,15 +1839,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
+          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1849,12 +1859,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30.16.1421</t>
+          <t>30.16.1422</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
+          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1863,7 +1873,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>399</v>
+        <v>500</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1872,15 +1882,15 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
+          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1892,12 +1902,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30.16.1422</t>
+          <t>30.16.1423</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
+          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1906,7 +1916,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1915,15 +1925,15 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
+          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1935,12 +1945,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.16.1423</t>
+          <t>30.16.1427</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
+          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1949,7 +1959,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1958,15 +1968,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
+          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1978,12 +1988,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30.16.1427</t>
+          <t>30.16.1429</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
+          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1992,7 +2002,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2001,15 +2011,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
+          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2021,12 +2031,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30.16.1429</t>
+          <t>30.16.1430</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
+          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2035,7 +2045,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2044,11 +2054,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
+          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>230</v>
+        <v>1051</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2064,12 +2074,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30.16.1430</t>
+          <t>30.16.1434</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
+          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2078,7 +2088,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>142</v>
+        <v>458</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2087,15 +2097,15 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
+          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1051</v>
+        <v>478</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2107,12 +2117,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30.16.1434</t>
+          <t>30.16.1445</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2121,7 +2131,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>458</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2130,15 +2140,15 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2150,21 +2160,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30.16.1445</t>
+          <t>30.16.1447</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
+          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2173,11 +2183,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
+          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2193,21 +2203,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.16.1447</t>
+          <t>30.16.1472</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
+          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2216,11 +2226,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
+          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2236,17 +2246,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.16.1472</t>
+          <t>30.16.1517</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
+          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2259,7 +2269,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
+          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2279,21 +2289,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30.16.1517</t>
+          <t>30.16.1520</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
+          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2302,11 +2312,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
+          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2322,12 +2332,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30.16.1520</t>
+          <t>30.16.153</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
+          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2336,7 +2346,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2345,15 +2355,15 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
+          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2365,12 +2375,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30.16.153</t>
+          <t>30.16.155</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
+          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2379,7 +2389,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2388,11 +2398,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
+          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2408,12 +2418,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30.16.155</t>
+          <t>30.16.1572</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2422,7 +2432,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2431,11 +2441,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2451,21 +2461,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30.16.1572</t>
+          <t>30.16.1604</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
+          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2474,15 +2484,15 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
+          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2521,7 +2531,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2537,21 +2547,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30.16.1604</t>
+          <t>30.16.1610</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2560,11 +2570,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2580,12 +2590,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30.16.1610</t>
+          <t>30.16.1620</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
+          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2594,7 +2604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2603,11 +2613,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
+          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2623,12 +2633,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30.16.1620</t>
+          <t>30.16.1656</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
+          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2637,7 +2647,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2646,11 +2656,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
+          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2666,21 +2676,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30.16.1656</t>
+          <t>30.16.169</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
+          <t>CLIPE DE METAL 2/0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2689,15 +2699,15 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
+          <t>CLIPE DE METAL 2/0</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2709,21 +2719,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30.16.169</t>
+          <t>30.16.1753</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL 2/0</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2732,15 +2742,15 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL 2/0</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2752,12 +2762,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30.16.1753</t>
+          <t>30.16.182</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
+          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2766,7 +2776,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2775,11 +2785,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
+          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2795,54 +2805,64 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30.16.182</t>
+          <t>30.16.1887</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
+          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>12</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>essn@discente.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30.16.1887</t>
+          <t>30.16.1926</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
+          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2851,15 +2871,15 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
+          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>essn@discente.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2871,21 +2891,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.16.1926</t>
+          <t>30.16.1942</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2894,11 +2914,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2914,21 +2934,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.16.1942</t>
+          <t>30.16.1974</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>865</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2937,15 +2957,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>865</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2957,12 +2977,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30.16.1974</t>
+          <t>30.16.1986</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
+          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2971,7 +2991,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>865</v>
+        <v>30</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2980,15 +3000,15 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
+          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>865</v>
+        <v>69</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3000,12 +3020,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30.16.1986</t>
+          <t>30.16.2050</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3014,7 +3034,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3023,11 +3043,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3043,12 +3063,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30.16.2050</t>
+          <t>30.16.208</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>PAPEL SULFITE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3057,31 +3077,41 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PAPEL SULFITE</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>8</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30.16.208</t>
+          <t>30.16.2119</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE</t>
+          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3099,11 +3129,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE</t>
+          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3119,12 +3149,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30.16.2119</t>
+          <t>30.16.2167</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3133,31 +3163,41 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>299</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>260</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30.16.2167</t>
+          <t>30.16.2168</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3166,7 +3206,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3175,15 +3215,15 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3195,21 +3235,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30.16.2168</t>
+          <t>30.16.2189</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
+          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3218,15 +3258,15 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
+          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3238,21 +3278,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30.16.2189</t>
+          <t>30.16.2196</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
+          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3261,11 +3301,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
+          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3324,12 +3364,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30.16.2196</t>
+          <t>30.16.2198</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3338,7 +3378,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3347,11 +3387,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3394,7 +3434,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3410,12 +3450,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30.16.2198</t>
+          <t>30.16.2363</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3424,7 +3464,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3433,11 +3473,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3453,17 +3493,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30.16.2363</t>
+          <t>30.16.2414</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
+          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3476,7 +3516,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
+          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3496,21 +3536,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30.16.2414</t>
+          <t>30.16.2415</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
+          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3519,11 +3559,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
+          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3539,21 +3579,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30.16.2415</t>
+          <t>30.16.2416</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
+          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3562,15 +3602,15 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
+          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3582,21 +3622,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30.16.2416</t>
+          <t>30.16.2417</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
+          <t>TNT, TECIDO FIBRA SINTETICA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3605,11 +3645,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
+          <t>TNT, TECIDO FIBRA SINTETICA</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3625,21 +3665,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30.16.2417</t>
+          <t>30.16.3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TNT, TECIDO FIBRA SINTETICA</t>
+          <t>APAGADOR PARA QUADRO BRANCO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3648,15 +3688,15 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>TNT, TECIDO FIBRA SINTETICA</t>
+          <t>APAGADOR PARA QUADRO BRANCO</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3668,12 +3708,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30.16.3</t>
+          <t>30.16.325</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO</t>
+          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3682,7 +3722,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3691,15 +3731,15 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO</t>
+          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>essn@discente.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3711,12 +3751,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30.16.325</t>
+          <t>30.16.348</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3725,7 +3765,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3734,15 +3774,15 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>essn@discente.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3754,12 +3794,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30.16.348</t>
+          <t>30.16.397</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
+          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3768,7 +3808,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3777,15 +3817,15 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
+          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3797,12 +3837,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30.16.397</t>
+          <t>30.16.410</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3811,7 +3851,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3820,11 +3860,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3840,12 +3880,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30.16.410</t>
+          <t>30.16.468</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
+          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3854,7 +3894,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3863,11 +3903,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
+          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3883,12 +3923,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30.16.468</t>
+          <t>30.16.487</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3897,7 +3937,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3906,11 +3946,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3969,12 +4009,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>30.16.487</t>
+          <t>30.16.488</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3983,7 +4023,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3992,11 +4032,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4012,12 +4052,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30.16.488</t>
+          <t>30.16.572</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
+          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4026,7 +4066,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4035,15 +4075,15 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
+          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4055,12 +4095,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30.16.572</t>
+          <t>30.16.607</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
+          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4069,7 +4109,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4078,15 +4118,15 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
+          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4098,21 +4138,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>30.16.607</t>
+          <t>30.16.684</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4121,15 +4161,15 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4141,12 +4181,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30.16.684</t>
+          <t>30.16.710</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
+          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4155,7 +4195,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4164,15 +4204,15 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
+          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4184,21 +4224,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30.16.710</t>
+          <t>30.16.713</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4207,15 +4247,15 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4227,12 +4267,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30.16.713</t>
+          <t>30.16.714</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4241,7 +4281,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>54</v>
+        <v>677</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4250,15 +4290,15 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>54</v>
+        <v>673</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4270,12 +4310,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.16.714</t>
+          <t>30.16.859</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4284,7 +4324,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>677</v>
+        <v>7</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4293,11 +4333,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>673</v>
+        <v>7</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4313,45 +4353,55 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30.16.718</t>
+          <t>30.16.863</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ETIQUETA PROTETORA ELETROMAGNÉTICA, TIPO DESATIVÁVEL E REATIVÁVEL, MODELO INVISÍVEL, APLICAÇÃO PROTEÇÃO CONTRA FURTOS E ARMAZENAMENTO DE INFORMAÇÕES</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>7266</v>
+        <v>34</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>35</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30.16.859</t>
+          <t>30.16.919</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
+          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4360,7 +4410,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4369,11 +4419,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
+          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4389,12 +4439,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30.16.863</t>
+          <t>30.16.953</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
+          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4403,7 +4453,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4412,15 +4462,15 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
+          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4432,12 +4482,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30.16.919</t>
+          <t>30.16.994</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
+          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4446,7 +4496,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4455,15 +4505,15 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
+          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4475,12 +4525,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30.16.953</t>
+          <t>30.17.150</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
+          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4489,20 +4539,20 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
+          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4518,12 +4568,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30.16.994</t>
+          <t>30.17.398</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
+          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4532,20 +4582,20 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
+          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4561,12 +4611,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30.17.150</t>
+          <t>30.17.428</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
+          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4575,7 +4625,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4584,11 +4634,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
+          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4604,12 +4654,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30.17.398</t>
+          <t>30.17.538</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
+          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4618,7 +4668,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4627,11 +4677,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
+          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4647,21 +4697,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30.17.428</t>
+          <t>30.17.558</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
+          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4670,11 +4720,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
+          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4690,12 +4740,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30.17.538</t>
+          <t>30.17.626</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
+          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4704,7 +4754,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4713,11 +4763,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
+          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4733,21 +4783,21 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30.17.558</t>
+          <t>30.17.693</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
+          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4756,11 +4806,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
+          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4776,21 +4826,21 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>30.17.626</t>
+          <t>30.17.694</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
+          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4799,11 +4849,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
+          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4819,12 +4869,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30.17.641</t>
+          <t>30.17.696</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FILTRO DE LINHA, 110/220V, POTÊNCIA 1500W, CORRENTE 10A E 5 TOMADAS.</t>
+          <t>CARTUCHO TINTA IMPRESSORA HP, REF HP 27 C8727, TINTA PRETA, 15 ML.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4833,7 +4883,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4852,12 +4902,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.17.693</t>
+          <t>30.17.713</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4866,7 +4916,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4875,11 +4925,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4895,21 +4945,21 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30.17.694</t>
+          <t>30.17.718</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4918,11 +4968,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4938,12 +4988,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>30.17.696</t>
+          <t>30.17.725</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CARTUCHO TINTA IMPRESSORA HP, REF HP 27 C8727, TINTA PRETA, 15 ML.</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4952,31 +5002,41 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Adaptador USB 3.0 para VGA</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>6</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.17.713</t>
+          <t>30.17.725</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4985,7 +5045,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4994,11 +5054,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -5014,12 +5074,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30.17.718</t>
+          <t>30.17.727</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5028,7 +5088,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5037,11 +5097,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -5057,12 +5117,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.78</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5071,7 +5131,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5080,11 +5140,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -5100,21 +5160,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.828</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5123,11 +5183,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -5143,12 +5203,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30.17.727</t>
+          <t>30.17.833</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5157,7 +5217,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5166,15 +5226,15 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5186,12 +5246,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30.17.78</t>
+          <t>30.17.834</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5200,7 +5260,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5209,15 +5269,15 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5229,21 +5289,21 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30.17.828</t>
+          <t>30.17.835</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5252,11 +5312,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5272,12 +5332,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30.17.833</t>
+          <t>30.17.836</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5286,7 +5346,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5295,15 +5355,15 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5315,12 +5375,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30.17.834</t>
+          <t>30.17.839</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5329,7 +5389,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5338,15 +5398,15 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -5358,21 +5418,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30.17.835</t>
+          <t>30.17.903</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>FRASCO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5381,11 +5441,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5401,12 +5461,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.17.836</t>
+          <t>30.22.109</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5415,20 +5475,20 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5444,12 +5504,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30.17.839</t>
+          <t>30.22.118</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5458,20 +5518,20 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5487,34 +5547,34 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>30.17.903</t>
+          <t>30.22.121</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FRASCO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5530,12 +5590,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30.22.109</t>
+          <t>30.22.125</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5544,7 +5604,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5553,11 +5613,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5573,21 +5633,21 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30.22.118</t>
+          <t>30.22.138</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PAR</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>46</v>
+        <v>326</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5596,11 +5656,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5616,21 +5676,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30.22.121</t>
+          <t>30.22.143</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5639,11 +5699,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5659,12 +5719,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.22.125</t>
+          <t>30.22.167</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5673,7 +5733,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5682,11 +5742,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5702,21 +5762,21 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.22.138</t>
+          <t>30.22.305</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PAR</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5725,11 +5785,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5745,54 +5805,64 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.22.143</t>
+          <t>30.22.310</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.22.167</t>
+          <t>30.22.333</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5801,11 +5871,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -5821,21 +5891,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.22.305</t>
+          <t>30.22.366</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5844,11 +5914,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -5864,12 +5934,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.22.310</t>
+          <t>30.22.375</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5878,7 +5948,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5887,11 +5957,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -5907,21 +5977,21 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.22.333</t>
+          <t>30.22.437</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5930,11 +6000,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -5950,21 +6020,21 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>30.22.366</t>
+          <t>30.22.441</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5973,11 +6043,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -5993,12 +6063,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>30.22.375</t>
+          <t>30.22.571</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
+          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6007,7 +6077,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6016,11 +6086,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
+          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -6036,12 +6106,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>30.22.437</t>
+          <t>30.22.640</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6050,7 +6120,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6059,11 +6129,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -6079,12 +6149,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30.22.441</t>
+          <t>30.22.65</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6093,7 +6163,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6102,11 +6172,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -6122,12 +6192,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30.22.571</t>
+          <t>30.22.708</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
+          <t>TAMPA DE VASO SANITARIO.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6136,7 +6206,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6145,11 +6215,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
+          <t>TAMPA DE VASO SANITARIO.</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -6165,21 +6235,21 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30.22.640</t>
+          <t>30.22.79</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
+          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6188,11 +6258,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
+          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -6208,12 +6278,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30.22.65</t>
+          <t>30.23.214</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6222,24 +6292,24 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>63</v>
+        <v>1745</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>63</v>
+        <v>1745</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -6251,34 +6321,34 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30.22.708</t>
+          <t>30.24.1400</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TAMPA DE VASO SANITARIO.</t>
+          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PÇ</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>TAMPA DE VASO SANITARIO.</t>
+          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -6294,34 +6364,34 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30.22.79</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -6337,12 +6407,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30.23.214</t>
+          <t>30.24.185</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6351,24 +6421,24 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1745</v>
+        <v>480</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1745</v>
+        <v>500</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6380,12 +6450,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.23.796</t>
+          <t>30.24.185</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JALECO EM MICROFIBRA, MANGA COMPRIDA</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6394,36 +6464,46 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>BUCHA DE NYLON Nº 08</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>500</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.24.1400</t>
+          <t>30.24.1853</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
+          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PÇ</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -6436,11 +6516,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
+          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -6456,12 +6536,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.24.1865</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6470,7 +6550,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6479,11 +6559,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -6499,12 +6579,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.1885</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>PARAFUSO FENDA MD CH 4,2 X 40 PARAFUSO METÁLICO PARA BUCHA 6 MM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6513,41 +6593,31 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>480</v>
+        <v>89</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>BUCHA DE NYLON Nº 08</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>500</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.2103</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6556,7 +6626,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6565,15 +6635,15 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6585,12 +6655,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.24.1853</t>
+          <t>30.24.2858</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6599,7 +6669,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6608,11 +6678,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -6628,12 +6698,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.24.1865</t>
+          <t>30.24.2907</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6642,7 +6712,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6651,11 +6721,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -6671,12 +6741,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.24.1885</t>
+          <t>30.24.2977</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PARAFUSO FENDA MD CH 4,2 X 40 PARAFUSO METÁLICO PARA BUCHA 6 MM</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6685,31 +6755,41 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>20</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.24.2103</t>
+          <t>30.24.3358</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6718,7 +6798,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6727,11 +6807,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -6747,12 +6827,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.24.2858</t>
+          <t>30.24.3492</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6761,7 +6841,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6770,15 +6850,15 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -6790,12 +6870,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.24.2907</t>
+          <t>30.24.3497</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6813,7 +6893,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>TOMADA, MODELO 2P T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -6833,12 +6913,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.24.2977</t>
+          <t>30.24.3498</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6847,7 +6927,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6856,11 +6936,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -6876,12 +6956,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.24.3358</t>
+          <t>30.24.946</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6890,7 +6970,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6899,11 +6979,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -6919,12 +6999,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.24.3492</t>
+          <t>30.26.150</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6933,24 +7013,24 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -6962,12 +7042,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.24.3497</t>
+          <t>30.26.1556</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6976,20 +7056,20 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P T, SISTEMA X 10A</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -7005,12 +7085,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.24.3498</t>
+          <t>30.26.2444</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7019,20 +7099,20 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -7048,12 +7128,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.24.946</t>
+          <t>30.26.2470</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7062,20 +7142,20 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -7091,12 +7171,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.26.150</t>
+          <t>30.26.2962</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7105,7 +7185,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7114,11 +7194,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -7134,12 +7214,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.26.1556</t>
+          <t>30.28.15</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7148,20 +7228,20 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -7177,12 +7257,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.26.2444</t>
+          <t>30.28.351</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7191,20 +7271,20 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -7220,12 +7300,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.26.2470</t>
+          <t>30.28.357</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7234,20 +7314,20 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -7263,12 +7343,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.26.2962</t>
+          <t>30.29.72</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7277,20 +7357,20 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -7306,12 +7386,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>30.28.15</t>
+          <t>30.29.94</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7320,20 +7400,20 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -7349,12 +7429,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>30.28.351</t>
+          <t>30.36.515</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7363,20 +7443,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -7392,34 +7472,34 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>30.28.357</t>
+          <t>30.36.518</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>GALÃO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -7435,34 +7515,34 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>30.29.72</t>
+          <t>30.36.519</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>FARDO</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -7478,12 +7558,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>30.29.80</t>
+          <t>30.36.520</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CAIXA SOM, POTÊNCIA 15WRMS W, VOLTAGEM BIVOLT V IMPEDÂNCIA 10 OHM</t>
+          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7492,31 +7572,41 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>17</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>essn@discente.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>30.29.94</t>
+          <t>30.36.522</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7525,20 +7615,20 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -7554,12 +7644,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>30.36.515</t>
+          <t>30.36.523</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7568,7 +7658,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -7577,11 +7667,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -7597,21 +7687,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>30.36.518</t>
+          <t>30.36.532</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
+          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>GALÃO</t>
+          <t>Conjunto</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -7620,11 +7710,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
+          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -7640,81 +7730,71 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>30.36.519</t>
+          <t>30.42.280</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
+          <t>ARCO SERRA 10 E 12 POL. TIPO REGULÁVEL.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>FARDO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>197</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>42 - FERRAMENTAS</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>30.36.520</t>
+          <t>30.42.877</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>JOGO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>42 - FERRAMENTAS</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>essn@discente.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7726,12 +7806,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>30.36.522</t>
+          <t>30.44.61</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7740,20 +7820,20 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -7769,12 +7849,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>30.36.523</t>
+          <t>30.44.62</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7783,20 +7863,20 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -7806,191 +7886,6 @@
       <c r="I174" t="inlineStr">
         <is>
           <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>30.36.532</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Conjunto</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>30.42.280</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ARCO SERRA 10 E 12 POL. TIPO REGULÁVEL.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>1</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>42 - FERRAMENTAS</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>left_only</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>30.42.877</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>JOGO</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>42 - FERRAMENTAS</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>30.44.61</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>left_only</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>30.44.62</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>left_only</t>
         </is>
       </c>
     </row>

--- a/consolidacao/CIGR_consolidacao.xlsx
+++ b/consolidacao/CIGR_consolidacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4869,12 +4869,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30.17.696</t>
+          <t>30.17.713</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CARTUCHO TINTA IMPRESSORA HP, REF HP 27 C8727, TINTA PRETA, 15 ML.</t>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4883,31 +4883,41 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.17.713</t>
+          <t>30.17.718</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4925,11 +4935,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4945,12 +4955,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30.17.718</t>
+          <t>30.17.725</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4959,7 +4969,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4968,11 +4978,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -5002,7 +5012,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5015,7 +5025,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -5031,12 +5041,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.727</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5054,11 +5064,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -5074,12 +5084,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30.17.727</t>
+          <t>30.17.78</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5088,7 +5098,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5097,11 +5107,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -5117,21 +5127,21 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>30.17.78</t>
+          <t>30.17.828</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5140,11 +5150,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -5160,21 +5170,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30.17.828</t>
+          <t>30.17.833</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5183,15 +5193,15 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5203,12 +5213,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30.17.833</t>
+          <t>30.17.834</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5217,7 +5227,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5226,11 +5236,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5246,12 +5256,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30.17.834</t>
+          <t>30.17.835</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5260,7 +5270,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5269,15 +5279,15 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5289,12 +5299,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30.17.835</t>
+          <t>30.17.836</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5303,7 +5313,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5312,11 +5322,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5332,12 +5342,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30.17.836</t>
+          <t>30.17.839</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5346,7 +5356,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5355,11 +5365,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5375,21 +5385,21 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30.17.839</t>
+          <t>30.17.903</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>FRASCO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5398,11 +5408,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5418,34 +5428,34 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30.17.903</t>
+          <t>30.22.109</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>FRASCO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5461,12 +5471,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.22.109</t>
+          <t>30.22.118</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5475,7 +5485,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5484,11 +5494,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5504,12 +5514,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30.22.118</t>
+          <t>30.22.121</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5518,7 +5528,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5527,11 +5537,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5547,12 +5557,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>30.22.121</t>
+          <t>30.22.125</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5561,7 +5571,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5570,11 +5580,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5590,21 +5600,21 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30.22.125</t>
+          <t>30.22.138</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PAR</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5613,11 +5623,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5633,21 +5643,21 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30.22.138</t>
+          <t>30.22.143</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PAR</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5656,11 +5666,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>328</v>
+        <v>86</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5676,21 +5686,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30.22.143</t>
+          <t>30.22.167</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5699,11 +5709,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5719,12 +5729,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.22.167</t>
+          <t>30.22.305</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5733,7 +5743,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5742,11 +5752,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5762,12 +5772,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.22.305</t>
+          <t>30.22.310</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5776,7 +5786,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5785,11 +5795,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5805,21 +5815,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.22.310</t>
+          <t>30.22.333</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5828,11 +5838,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5848,21 +5858,21 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.22.333</t>
+          <t>30.22.366</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5871,11 +5881,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -5918,7 +5928,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -6378,7 +6388,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6507,7 +6517,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6579,12 +6589,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.24.1885</t>
+          <t>30.24.2103</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PARAFUSO FENDA MD CH 4,2 X 40 PARAFUSO METÁLICO PARA BUCHA 6 MM</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6593,31 +6603,41 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>5</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.24.2103</t>
+          <t>30.24.2858</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6626,7 +6646,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6635,11 +6655,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -6655,12 +6675,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.24.2858</t>
+          <t>30.24.2907</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6669,7 +6689,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6678,11 +6698,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -6698,12 +6718,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.24.2907</t>
+          <t>30.24.2977</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6712,7 +6732,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6721,11 +6741,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -6741,12 +6761,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.24.2977</t>
+          <t>30.24.3358</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6755,7 +6775,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6764,11 +6784,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -6784,12 +6804,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.24.3358</t>
+          <t>30.24.3492</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6798,7 +6818,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6807,15 +6827,15 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -6827,12 +6847,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.24.3492</t>
+          <t>30.24.3497</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6841,7 +6861,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6850,15 +6870,15 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>TOMADA, MODELO 2P T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -6870,12 +6890,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.24.3497</t>
+          <t>30.24.3498</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6884,7 +6904,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6893,11 +6913,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P T, SISTEMA X 10A</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -6913,12 +6933,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.24.3498</t>
+          <t>30.24.946</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6927,7 +6947,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6936,11 +6956,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -6956,12 +6976,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.24.946</t>
+          <t>30.26.150</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6970,20 +6990,20 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -6999,12 +7019,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.26.150</t>
+          <t>30.26.1556</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7013,7 +7033,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7022,11 +7042,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -7042,12 +7062,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.26.1556</t>
+          <t>30.26.2444</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7056,7 +7076,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7065,11 +7085,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -7085,12 +7105,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.26.2444</t>
+          <t>30.26.2470</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7108,7 +7128,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -7128,12 +7148,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.26.2470</t>
+          <t>30.26.2962</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7142,7 +7162,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7151,11 +7171,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -7171,12 +7191,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.26.2962</t>
+          <t>30.28.15</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7189,12 +7209,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -7214,12 +7234,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.28.15</t>
+          <t>30.28.351</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7228,7 +7248,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -7237,11 +7257,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -7257,12 +7277,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.28.351</t>
+          <t>30.28.357</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7271,7 +7291,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -7280,11 +7300,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -7300,12 +7320,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.28.357</t>
+          <t>30.29.72</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7318,16 +7338,16 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -7343,12 +7363,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.29.72</t>
+          <t>30.29.94</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7357,7 +7377,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -7366,11 +7386,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -7386,12 +7406,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>30.29.94</t>
+          <t>30.36.515</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7400,20 +7420,20 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -7429,21 +7449,21 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>30.36.515</t>
+          <t>30.36.518</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>GALÃO</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -7452,11 +7472,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -7472,21 +7492,21 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>30.36.518</t>
+          <t>30.36.519</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>GALÃO</t>
+          <t>FARDO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7495,11 +7515,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -7542,7 +7562,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -7730,17 +7750,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>30.42.280</t>
+          <t>30.42.877</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ARCO SERRA 10 E 12 POL. TIPO REGULÁVEL.</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>JOGO</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -7751,50 +7771,60 @@
           <t>42 - FERRAMENTAS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>30.42.877</t>
+          <t>30.44.61</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>JOGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7806,12 +7836,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>30.44.61</t>
+          <t>30.44.62</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7820,7 +7850,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -7829,11 +7859,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -7841,49 +7871,6 @@
         </is>
       </c>
       <c r="I173" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>30.44.62</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>5</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
         <is>
           <t>both</t>
         </is>

--- a/consolidacao/CIGR_consolidacao.xlsx
+++ b/consolidacao/CIGR_consolidacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,38 +526,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30.11.922</t>
+          <t>30.14.177</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Álcool 70. agente desinfetante, Líquido, límpido e transparente. Embalagem com 5L</t>
+          <t>BOLA DE VÔLEI APLICAÇÃO EM (PRAIA),CIRC. 65 À 67CM, EM MICROFIBRA, PESO:260 À 280G (CHEIA), PRESSÃO(03 À 04 LB).</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOMBONA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11 - MATERIAL QUIMICO</t>
+          <t>14 - MATERIAL EDUCATIVO E ESPORTIVO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Álcool 70. agente desinfetante, Líquido, límpido e transparente. Embalagem com 5L</t>
+          <t>BOLA DE VÔLEI APLICAÇÃO EM (PRAIA),CIRC. 65 À 67CM, EM MICROFIBRA, PESO:260 À 280G (CHEIA), PRESSÃO(03 À 04 LB).</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -569,12 +569,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30.14.177</t>
+          <t>30.14.24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOLA DE VÔLEI APLICAÇÃO EM (PRAIA),CIRC. 65 À 67CM, EM MICROFIBRA, PESO:260 À 280G (CHEIA), PRESSÃO(03 À 04 LB).</t>
+          <t>BOMBA DE ENCHER BOLA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BOLA DE VÔLEI APLICAÇÃO EM (PRAIA),CIRC. 65 À 67CM, EM MICROFIBRA, PESO:260 À 280G (CHEIA), PRESSÃO(03 À 04 LB).</t>
+          <t>BOMBA DE ENCHER BOLA</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30.14.24</t>
+          <t>30.14.278</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOMBA DE ENCHER BOLA</t>
+          <t>COLETE ESPORTIVO POLIESTER.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -635,11 +635,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BOMBA DE ENCHER BOLA</t>
+          <t>COLETE ESPORTIVO POLIESTER.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -655,12 +655,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30.14.278</t>
+          <t>30.14.283</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COLETE ESPORTIVO POLIESTER.</t>
+          <t>COLETE ESPORTIVO, MATERIAL POLIÉSTER, NUMERADOS, C/ LOGO DO IFPE, CORES DIVERSAS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -678,11 +678,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COLETE ESPORTIVO POLIESTER.</t>
+          <t>COLETE ESPORTIVO, MATERIAL POLIÉSTER, NUMERADOS, C/ LOGO DO IFPE, CORES DIVERSAS.</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30.14.283</t>
+          <t>30.14.557</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COLETE ESPORTIVO, MATERIAL POLIÉSTER, NUMERADOS, C/ LOGO DO IFPE, CORES DIVERSAS.</t>
+          <t>BOLA DE VOLEI DE QUADRA, COR BRANCA, MARCA: TRIVELLA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -721,11 +721,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COLETE ESPORTIVO, MATERIAL POLIÉSTER, NUMERADOS, C/ LOGO DO IFPE, CORES DIVERSAS.</t>
+          <t>BOLA DE VOLEI DE QUADRA, COR BRANCA, MARCA: TRIVELLA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30.14.557</t>
+          <t>30.14.561</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOLA DE VOLEI DE QUADRA, COR BRANCA, MARCA: TRIVELLA</t>
+          <t>REDE ESPORTE, NAILON, COR BRANCA, FUTSAL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -764,11 +764,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BOLA DE VOLEI DE QUADRA, COR BRANCA, MARCA: TRIVELLA</t>
+          <t>REDE ESPORTE, NAILON, COR BRANCA, FUTSAL</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -784,12 +784,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30.14.561</t>
+          <t>30.14.61</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REDE ESPORTE, NAILON, COR BRANCA, FUTSAL</t>
+          <t>CRONÔMETRO - RELÓGIO PARA MARCAR JOGO DE XADREZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>REDE ESPORTE, NAILON, COR BRANCA, FUTSAL</t>
+          <t>CRONÔMETRO - RELÓGIO PARA MARCAR JOGO DE XADREZ</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -827,12 +827,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30.14.61</t>
+          <t>30.14.8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CRONÔMETRO - RELÓGIO PARA MARCAR JOGO DE XADREZ</t>
+          <t>APITO DE METAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRONÔMETRO - RELÓGIO PARA MARCAR JOGO DE XADREZ</t>
+          <t>APITO DE METAL</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -870,12 +870,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30.14.8</t>
+          <t>30.16.1143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>APITO DE METAL</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -884,20 +884,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14 - MATERIAL EDUCATIVO E ESPORTIVO</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>APITO DE METAL</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -913,12 +913,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30.16.1143</t>
+          <t>30.16.1144</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
+          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>1146</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -936,11 +936,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
+          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>1146</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -956,12 +956,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30.16.1144</t>
+          <t>30.16.1148</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1146</v>
+        <v>16</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -979,15 +979,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1294</v>
+        <v>19</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -999,21 +999,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30.16.1144</t>
+          <t>30.16.1154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1146</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1146</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1042,21 +1042,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30.16.1148</t>
+          <t>30.16.1166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
+          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1065,15 +1065,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
+          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1085,21 +1085,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30.16.1154</t>
+          <t>30.16.1183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>RESMA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1108,11 +1108,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1128,21 +1128,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30.16.1166</t>
+          <t>30.16.1186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
+          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1151,11 +1151,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
+          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1171,21 +1171,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30.16.1183</t>
+          <t>30.16.1192</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RESMA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1194,11 +1194,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1214,21 +1214,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30.16.1183</t>
+          <t>30.16.123</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>PASTA POLIONDA 4 CM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RESMA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>PASTA POLIONDA 4 CM</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1257,21 +1257,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30.16.1186</t>
+          <t>30.16.1269</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
+          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1280,11 +1280,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
+          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1300,12 +1300,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30.16.1192</t>
+          <t>30.16.1359</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1323,11 +1323,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1343,12 +1343,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30.16.123</t>
+          <t>30.16.136</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PASTA POLIONDA 4 CM</t>
+          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PASTA POLIONDA 4 CM</t>
+          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1386,12 +1386,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30.16.1269</t>
+          <t>30.16.1360</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1429,12 +1429,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30.16.1359</t>
+          <t>30.16.1361</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1472,12 +1472,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30.16.136</t>
+          <t>30.16.1362</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30.16.1360</t>
+          <t>30.16.1366</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
+          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1538,11 +1538,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
+          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1558,12 +1558,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30.16.1361</t>
+          <t>30.16.1374</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
+          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
+          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1601,12 +1601,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30.16.1362</t>
+          <t>30.16.1392</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
+          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1624,11 +1624,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
+          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1644,12 +1644,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30.16.1366</t>
+          <t>30.16.1416</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1687,12 +1687,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30.16.1374</t>
+          <t>30.16.1421</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
+          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1710,15 +1710,15 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
+          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1730,12 +1730,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.16.1392</t>
+          <t>30.16.1422</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
+          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1753,11 +1753,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
+          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30.16.1416</t>
+          <t>30.16.1423</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
+          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1796,15 +1796,15 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
+          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30.16.1421</t>
+          <t>30.16.1427</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
+          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1839,15 +1839,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
+          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1859,12 +1859,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30.16.1422</t>
+          <t>30.16.1429</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
+          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1882,11 +1882,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
+          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1902,12 +1902,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30.16.1423</t>
+          <t>30.16.1430</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
+          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1925,15 +1925,15 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
+          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>301</v>
+        <v>1051</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1945,12 +1945,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.16.1427</t>
+          <t>30.16.1434</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
+          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>192</v>
+        <v>458</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1968,15 +1968,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
+          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1988,12 +1988,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30.16.1429</t>
+          <t>30.16.1445</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2011,11 +2011,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2031,21 +2031,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30.16.1430</t>
+          <t>30.16.1447</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
+          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2054,11 +2054,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
+          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1051</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2074,12 +2074,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30.16.1434</t>
+          <t>30.16.1472</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
+          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2097,15 +2097,15 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
+          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>478</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2117,21 +2117,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30.16.1445</t>
+          <t>30.16.1517</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
+          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2140,11 +2140,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
+          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30.16.1447</t>
+          <t>30.16.1520</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
+          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
+          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2203,12 +2203,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.16.1472</t>
+          <t>30.16.153</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
+          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2226,15 +2226,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
+          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2246,21 +2246,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.16.1517</t>
+          <t>30.16.155</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
+          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2269,15 +2269,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
+          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2289,12 +2289,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30.16.1520</t>
+          <t>30.16.1572</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2312,15 +2312,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2332,21 +2332,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30.16.153</t>
+          <t>30.16.1604</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
+          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2355,15 +2355,15 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
+          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2375,12 +2375,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30.16.155</t>
+          <t>30.16.1610</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2398,15 +2398,15 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2418,12 +2418,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30.16.1572</t>
+          <t>30.16.1620</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
+          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2441,15 +2441,15 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
+          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2461,21 +2461,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30.16.1604</t>
+          <t>30.16.1656</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2504,12 +2504,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30.16.1604</t>
+          <t>30.16.169</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>CLIPE DE METAL 2/0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2527,15 +2527,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>CLIPE DE METAL 2/0</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30.16.1610</t>
+          <t>30.16.1753</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2590,12 +2590,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30.16.1620</t>
+          <t>30.16.182</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
+          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
+          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2633,21 +2633,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30.16.1656</t>
+          <t>30.16.1887</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
+          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
+          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>essn@discente.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2676,21 +2676,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30.16.169</t>
+          <t>30.16.1926</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL 2/0</t>
+          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2699,15 +2699,15 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL 2/0</t>
+          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2719,21 +2719,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30.16.1753</t>
+          <t>30.16.1942</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2742,11 +2742,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2762,12 +2762,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30.16.182</t>
+          <t>30.16.1974</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
+          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>865</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2785,15 +2785,15 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
+          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>865</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2805,21 +2805,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30.16.1887</t>
+          <t>30.16.1986</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
+          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2828,15 +2828,15 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
+          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>essn@discente.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2848,12 +2848,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30.16.1926</t>
+          <t>30.16.2050</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2871,11 +2871,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2891,21 +2891,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.16.1942</t>
+          <t>30.16.208</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>PAPEL SULFITE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2914,11 +2914,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>PAPEL SULFITE</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2934,12 +2934,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.16.1974</t>
+          <t>30.16.2119</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
+          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>865</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2957,15 +2957,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
+          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>865</v>
+        <v>12</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2977,12 +2977,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30.16.1986</t>
+          <t>30.16.2167</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3000,15 +3000,15 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3020,12 +3020,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30.16.2050</t>
+          <t>30.16.2168</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3043,15 +3043,15 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3063,21 +3063,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30.16.208</t>
+          <t>30.16.2189</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE</t>
+          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE</t>
+          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3106,12 +3106,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30.16.2119</t>
+          <t>30.16.2196</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
+          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3129,11 +3129,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
+          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3149,12 +3149,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30.16.2167</t>
+          <t>30.16.2198</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
+          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
+          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3192,12 +3192,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30.16.2168</t>
+          <t>30.16.2363</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
+          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3215,15 +3215,15 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
+          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3235,12 +3235,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30.16.2189</t>
+          <t>30.16.2414</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
+          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3258,11 +3258,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
+          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3278,12 +3278,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30.16.2196</t>
+          <t>30.16.2415</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3301,11 +3301,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3321,21 +3321,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30.16.2196</t>
+          <t>30.16.2416</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3344,15 +3344,15 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3364,21 +3364,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30.16.2198</t>
+          <t>30.16.2417</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>TNT, TECIDO FIBRA SINTETICA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3387,15 +3387,15 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>TNT, TECIDO FIBRA SINTETICA</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3407,12 +3407,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30.16.2198</t>
+          <t>30.16.3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>APAGADOR PARA QUADRO BRANCO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3430,11 +3430,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>APAGADOR PARA QUADRO BRANCO</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3450,12 +3450,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30.16.2363</t>
+          <t>30.16.325</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
+          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3473,15 +3473,15 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
+          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>essn@discente.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3493,21 +3493,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30.16.2414</t>
+          <t>30.16.348</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3516,15 +3516,15 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3536,12 +3536,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30.16.2415</t>
+          <t>30.16.397</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
+          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
+          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3579,21 +3579,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30.16.2416</t>
+          <t>30.16.410</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3602,15 +3602,15 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3622,21 +3622,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30.16.2417</t>
+          <t>30.16.468</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TNT, TECIDO FIBRA SINTETICA</t>
+          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3645,15 +3645,15 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TNT, TECIDO FIBRA SINTETICA</t>
+          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3665,12 +3665,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30.16.3</t>
+          <t>30.16.487</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3688,11 +3688,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3708,12 +3708,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30.16.325</t>
+          <t>30.16.488</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3731,15 +3731,15 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>essn@discente.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3751,12 +3751,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30.16.348</t>
+          <t>30.16.572</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
+          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3774,15 +3774,15 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
+          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3794,12 +3794,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30.16.397</t>
+          <t>30.16.607</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
+          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3817,15 +3817,15 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
+          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3837,21 +3837,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30.16.410</t>
+          <t>30.16.684</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3860,15 +3860,15 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3880,21 +3880,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30.16.468</t>
+          <t>30.16.710</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
+          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
+          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3923,12 +3923,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30.16.487</t>
+          <t>30.16.713</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3946,15 +3946,15 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3966,12 +3966,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>30.16.487</t>
+          <t>30.16.714</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>56</v>
+        <v>673</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3989,15 +3989,15 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>56</v>
+        <v>673</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>30.16.488</t>
+          <t>30.16.859</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
+          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4032,15 +4032,15 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
+          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4052,12 +4052,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30.16.572</t>
+          <t>30.16.863</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4075,15 +4075,15 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4095,12 +4095,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30.16.607</t>
+          <t>30.16.919</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
+          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4118,11 +4118,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
+          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -4138,21 +4138,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>30.16.684</t>
+          <t>30.16.953</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
+          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4161,15 +4161,15 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
+          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4181,21 +4181,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30.16.710</t>
+          <t>30.16.994</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
+          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
+          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4224,12 +4224,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30.16.713</t>
+          <t>30.17.150</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4238,24 +4238,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4267,12 +4267,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30.16.714</t>
+          <t>30.17.398</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4281,24 +4281,24 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>673</v>
+        <v>168</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>673</v>
+        <v>175</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4310,12 +4310,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.16.859</t>
+          <t>30.17.428</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
+          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4324,24 +4324,24 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
+          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4353,12 +4353,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30.16.863</t>
+          <t>30.17.538</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
+          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4367,24 +4367,24 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
+          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4396,38 +4396,38 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30.16.919</t>
+          <t>30.17.558</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
+          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
+          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4439,12 +4439,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30.16.953</t>
+          <t>30.17.626</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
+          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4453,20 +4453,20 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
+          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4482,12 +4482,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30.16.994</t>
+          <t>30.17.693</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
+          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4496,20 +4496,20 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
+          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4525,21 +4525,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30.17.150</t>
+          <t>30.17.694</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
+          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
+          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4568,12 +4568,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30.17.398</t>
+          <t>30.17.713</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4591,11 +4591,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4611,12 +4611,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30.17.428</t>
+          <t>30.17.718</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4634,11 +4634,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4654,12 +4654,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30.17.538</t>
+          <t>30.17.725</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4677,11 +4677,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4697,21 +4697,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30.17.558</t>
+          <t>30.17.727</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4720,11 +4720,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4740,12 +4740,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30.17.626</t>
+          <t>30.17.78</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4763,11 +4763,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4783,21 +4783,21 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30.17.693</t>
+          <t>30.17.828</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4806,11 +4806,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4826,21 +4826,21 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>30.17.694</t>
+          <t>30.17.833</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4849,15 +4849,15 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -4869,12 +4869,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30.17.713</t>
+          <t>30.17.834</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4892,15 +4892,15 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -4912,12 +4912,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.17.718</t>
+          <t>30.17.835</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4935,11 +4935,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4955,12 +4955,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.836</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4978,11 +4978,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4998,12 +4998,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.839</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5021,11 +5021,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -5041,21 +5041,21 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.17.727</t>
+          <t>30.17.903</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>FRASCO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5064,11 +5064,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -5084,12 +5084,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30.17.78</t>
+          <t>30.22.109</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5098,20 +5098,20 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -5127,34 +5127,34 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>30.17.828</t>
+          <t>30.22.118</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -5170,12 +5170,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30.17.833</t>
+          <t>30.22.121</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5184,24 +5184,24 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5213,12 +5213,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30.17.834</t>
+          <t>30.22.125</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5227,24 +5227,24 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5256,34 +5256,34 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30.17.835</t>
+          <t>30.22.138</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PAR</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -5299,34 +5299,34 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30.17.836</t>
+          <t>30.22.143</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5342,12 +5342,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30.17.839</t>
+          <t>30.22.167</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5356,20 +5356,20 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5385,34 +5385,34 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30.17.903</t>
+          <t>30.22.305</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>FRASCO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5428,12 +5428,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30.22.109</t>
+          <t>30.22.310</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5451,11 +5451,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5471,21 +5471,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.22.118</t>
+          <t>30.22.333</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5494,11 +5494,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5514,21 +5514,21 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30.22.121</t>
+          <t>30.22.366</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5537,11 +5537,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5557,12 +5557,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>30.22.125</t>
+          <t>30.22.375</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5580,11 +5580,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5600,21 +5600,21 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30.22.138</t>
+          <t>30.22.437</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PAR</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5623,11 +5623,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5643,21 +5643,21 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30.22.143</t>
+          <t>30.22.441</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
+          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5666,11 +5666,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
+          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5686,12 +5686,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30.22.167</t>
+          <t>30.22.571</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5709,11 +5709,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5729,12 +5729,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.22.305</t>
+          <t>30.22.640</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5752,11 +5752,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5772,12 +5772,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.22.310</t>
+          <t>30.22.65</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5815,21 +5815,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.22.333</t>
+          <t>30.22.708</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>TAMPA DE VASO SANITARIO.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5838,11 +5838,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>TAMPA DE VASO SANITARIO.</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5858,21 +5858,21 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.22.366</t>
+          <t>30.22.79</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5881,11 +5881,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -5901,38 +5901,38 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.22.366</t>
+          <t>30.23.214</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>195</v>
+        <v>1745</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>195</v>
+        <v>1745</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>renato.silva@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -5944,34 +5944,34 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.22.375</t>
+          <t>30.24.1400</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
+          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PÇ</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
+          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -5987,12 +5987,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.22.437</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6001,20 +6001,20 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -6030,12 +6030,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>30.22.441</t>
+          <t>30.24.185</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6044,24 +6044,24 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6073,12 +6073,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>30.22.571</t>
+          <t>30.24.1853</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
+          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6087,20 +6087,20 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
+          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>30.22.640</t>
+          <t>30.24.1865</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
+          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6130,20 +6130,20 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
+          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -6159,12 +6159,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30.22.65</t>
+          <t>30.24.2103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6173,20 +6173,20 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -6202,12 +6202,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30.22.708</t>
+          <t>30.24.2858</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TAMPA DE VASO SANITARIO.</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6216,20 +6216,20 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>TAMPA DE VASO SANITARIO.</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -6245,34 +6245,34 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30.22.79</t>
+          <t>30.24.2907</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -6288,12 +6288,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30.23.214</t>
+          <t>30.24.2977</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6302,24 +6302,24 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1745</v>
+        <v>20</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1745</v>
+        <v>20</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>renato.silva@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -6331,21 +6331,21 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30.24.1400</t>
+          <t>30.24.3358</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PÇ</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6354,11 +6354,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -6374,12 +6374,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.24.3492</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6397,15 +6397,15 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6417,12 +6417,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.3497</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6440,11 +6440,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>TOMADA, MODELO 2P T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -6460,12 +6460,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.3498</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6483,15 +6483,15 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -6503,12 +6503,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.24.1853</t>
+          <t>30.24.946</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6526,11 +6526,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -6546,12 +6546,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.24.1865</t>
+          <t>30.26.150</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6560,20 +6560,20 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -6589,12 +6589,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.24.2103</t>
+          <t>30.26.1556</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6603,20 +6603,20 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -6632,12 +6632,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.24.2858</t>
+          <t>30.26.2444</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6646,20 +6646,20 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -6675,12 +6675,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.24.2907</t>
+          <t>30.26.2470</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6689,20 +6689,20 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -6718,12 +6718,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.24.2977</t>
+          <t>30.26.2962</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6732,20 +6732,20 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -6761,12 +6761,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.24.3358</t>
+          <t>30.28.15</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6775,20 +6775,20 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -6804,12 +6804,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.24.3492</t>
+          <t>30.28.351</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6818,24 +6818,24 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
+          <t>cmpsg@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -6847,12 +6847,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.24.3497</t>
+          <t>30.28.357</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6861,20 +6861,20 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P T, SISTEMA X 10A</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -6890,12 +6890,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.24.3498</t>
+          <t>30.29.72</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6904,20 +6904,20 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -6933,12 +6933,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.24.946</t>
+          <t>30.29.94</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6947,20 +6947,20 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.26.150</t>
+          <t>30.36.515</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6990,20 +6990,20 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -7019,34 +7019,34 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.26.1556</t>
+          <t>30.36.518</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>GALÃO</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -7062,34 +7062,34 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.26.2444</t>
+          <t>30.36.519</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>FARDO</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -7105,12 +7105,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.26.2470</t>
+          <t>30.36.520</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7119,24 +7119,24 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>essn@discente.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7148,12 +7148,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.26.2962</t>
+          <t>30.36.522</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7162,20 +7162,20 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -7191,12 +7191,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.28.15</t>
+          <t>30.36.523</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7205,20 +7205,20 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -7234,34 +7234,34 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.28.351</t>
+          <t>30.36.532</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Conjunto</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -7277,38 +7277,38 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.28.357</t>
+          <t>30.42.877</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>JOGO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>42 - FERRAMENTAS</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
+          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7320,12 +7320,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.29.72</t>
+          <t>30.44.61</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7334,20 +7334,20 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -7363,12 +7363,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.29.94</t>
+          <t>30.44.62</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7377,20 +7377,20 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -7398,479 +7398,6 @@
         </is>
       </c>
       <c r="I162" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>30.36.515</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>600</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>600</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>30.36.518</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>GALÃO</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>42</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>45</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>30.36.519</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>FARDO</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>31</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>197</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>30.36.519</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>FARDO</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>31</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>31</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>30.36.520</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>2</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>17</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>essn@discente.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>30.36.522</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>3</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>8</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>30.36.523</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>50</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>50</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>30.36.532</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Conjunto</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>30.42.877</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>JOGO</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>42 - FERRAMENTAS</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>edivonaldo.araujo@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>30.44.61</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>2</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>4</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>30.44.62</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>1</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>5</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>cmpsg@igarassu.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
         <is>
           <t>both</t>
         </is>
